--- a/AnualReportGenerator/Data/Config.xlsx
+++ b/AnualReportGenerator/Data/Config.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShirinMouakkad\Documents\UiPath\AnualReportGenerator\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShirinMouakkad\Documents\GitHub\Uipath_AnnualReport\AnualReportGenerator\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
+    <t>AnnualReport</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -43,6 +43,9 @@
     <t>OrchestratorQueueFolder</t>
   </si>
   <si>
+    <t>Process</t>
+  </si>
+  <si>
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>Asset</t>
   </si>
   <si>
+    <t>Credential</t>
+  </si>
+  <si>
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
@@ -160,13 +166,16 @@
     <t>AcmeWebsitLoginLink</t>
   </si>
   <si>
-    <t>/Process</t>
+    <t>No</t>
   </si>
   <si>
     <t>The login link for Acme website</t>
   </si>
   <si>
     <t>AcmeLoginCredential</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>Login Credential to acme website</t>
@@ -513,8 +522,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44141" defaultRowHeight="15" customHeight="1"/>
@@ -574,21 +583,23 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="30">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
@@ -1640,138 +1651,138 @@
     </row>
     <row r="2" ht="30">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="45">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="30">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -2752,16 +2763,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0" topLeftCell="C1">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44141" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.88672" customWidth="1"/>
     <col min="2" max="2" width="30.10938" customWidth="1"/>
-    <col min="3" max="3" width="60.33203" customWidth="1"/>
-    <col min="4" max="26" width="65.44141" customWidth="1"/>
+    <col min="3" max="3" width="30.10938" customWidth="1"/>
+    <col min="4" max="4" width="60.33203" customWidth="1"/>
+    <col min="5" max="27" width="65.44141" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2769,15 +2781,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2799,33 +2813,40 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>

--- a/AnualReportGenerator/Data/Config.xlsx
+++ b/AnualReportGenerator/Data/Config.xlsx
@@ -8,7 +8,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -58,6 +58,18 @@
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
+    <t>OutputFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\UserName\Documents\GenerateYearlyReport</t>
+  </si>
+  <si>
+    <t>DownloadFolder</t>
+  </si>
+  <si>
+    <t>C:\Users\UserName\Downloads</t>
+  </si>
+  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -149,6 +161,9 @@
   </si>
   <si>
     <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t>ReportYear</t>
   </si>
   <si>
     <t>Asset</t>
@@ -522,8 +537,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44141" defaultRowHeight="15" customHeight="1"/>
@@ -602,8 +617,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="8" ht="14.25" customHeight="1"/>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -1603,8 +1632,8 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A10">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44141" defaultRowHeight="15" customHeight="1"/>
@@ -1651,141 +1680,148 @@
     </row>
     <row r="2" ht="30">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="45">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="30">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>2024</v>
+      </c>
+    </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -2781,16 +2817,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2817,36 +2853,36 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>

--- a/AnualReportGenerator/Data/Config.xlsx
+++ b/AnualReportGenerator/Data/Config.xlsx
@@ -8,12 +8,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Evaluation Warning" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -64,12 +65,36 @@
     <t>C:\Users\UserName\Documents\GenerateYearlyReport</t>
   </si>
   <si>
+    <t>The folder where we save the generated yearly report</t>
+  </si>
+  <si>
     <t>DownloadFolder</t>
   </si>
   <si>
     <t>C:\Users\UserName\Downloads</t>
   </si>
   <si>
+    <t>The folder where the downloaded monthly report saved</t>
+  </si>
+  <si>
+    <t>ReportFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\UserName\Documents\ProcessReports\</t>
+  </si>
+  <si>
+    <t>The folder where we save the Process report for success and failed cases</t>
+  </si>
+  <si>
+    <t>SmeEmail</t>
+  </si>
+  <si>
+    <t>Shirin.mouakkad@gmail.com</t>
+  </si>
+  <si>
+    <t>ReportYear</t>
+  </si>
+  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -161,9 +186,6 @@
   </si>
   <si>
     <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
-    <t>ReportYear</t>
   </si>
   <si>
     <t>Asset</t>
@@ -200,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,6 +233,11 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -228,12 +255,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,16 +565,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0" topLeftCell="A4">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44141" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.55469" customWidth="1"/>
+    <col min="1" max="1" width="43.57031" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44141" customWidth="1"/>
-    <col min="4" max="26" width="8.664063" customWidth="1"/>
+    <col min="3" max="3" width="81.42578" customWidth="1"/>
+    <col min="4" max="26" width="8.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -624,18 +652,48 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>2025</v>
+      </c>
+    </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -1632,16 +1690,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0" topLeftCell="A10">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44141" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44141" customWidth="1"/>
-    <col min="4" max="26" width="8.664063" customWidth="1"/>
+    <col min="3" max="3" width="75.42578" customWidth="1"/>
+    <col min="4" max="26" width="8.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1680,148 +1738,141 @@
     </row>
     <row r="2" ht="30">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="45">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="30">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18">
-        <v>2024</v>
-      </c>
-    </row>
+    <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -2800,16 +2851,16 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="C1">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44141" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88672" customWidth="1"/>
-    <col min="2" max="2" width="30.10938" customWidth="1"/>
-    <col min="3" max="3" width="30.10938" customWidth="1"/>
-    <col min="4" max="4" width="60.33203" customWidth="1"/>
-    <col min="5" max="27" width="65.44141" customWidth="1"/>
+    <col min="1" max="1" width="31.85547" customWidth="1"/>
+    <col min="2" max="2" width="30.14063" customWidth="1"/>
+    <col min="3" max="3" width="30.14063" customWidth="1"/>
+    <col min="4" max="4" width="60.28516" customWidth="1"/>
+    <col min="5" max="27" width="65.42578" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2817,16 +2868,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2853,36 +2904,36 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
@@ -3884,4 +3935,29 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" ht="18.75">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>This document was generated using a trial version of DevExpress libraries and can only be used for evaluation purposes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18.75">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Please purchase a license to continue use of DevExpress product libraries (v25.1.3.0)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/AnualReportGenerator/Data/Config.xlsx
+++ b/AnualReportGenerator/Data/Config.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
-    <sheet name="Evaluation Warning" sheetId="12" r:id="rId4"/>
+    <sheet name="Evaluation Warning" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -95,6 +95,9 @@
     <t>ReportYear</t>
   </si>
   <si>
+    <t>AcmeLoginCredential</t>
+  </si>
+  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -191,9 +194,6 @@
     <t>Asset</t>
   </si>
   <si>
-    <t>Credential</t>
-  </si>
-  <si>
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
@@ -203,19 +203,7 @@
     <t>AcmeWebsitLoginLink</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>The login link for Acme website</t>
-  </si>
-  <si>
-    <t>AcmeLoginCredential</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Login Credential to acme website</t>
   </si>
 </sst>
 </file>
@@ -565,8 +553,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A4">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578" defaultRowHeight="15" customHeight="1"/>
@@ -694,7 +682,14 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -1738,138 +1733,138 @@
     </row>
     <row r="2" ht="30">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="45">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="30">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -2850,17 +2845,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="C1">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85547" customWidth="1"/>
     <col min="2" max="2" width="30.14063" customWidth="1"/>
-    <col min="3" max="3" width="30.14063" customWidth="1"/>
-    <col min="4" max="4" width="60.28516" customWidth="1"/>
-    <col min="5" max="27" width="65.42578" customWidth="1"/>
+    <col min="3" max="3" width="60.28516" customWidth="1"/>
+    <col min="4" max="26" width="65.42578" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2868,17 +2862,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2900,7 +2892,6 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
@@ -2910,32 +2901,13 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-    </row>
+    <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1"/>
@@ -3932,7 +3904,6 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
 </worksheet>
 </file>

--- a/AnualReportGenerator/Data/Config.xlsx
+++ b/AnualReportGenerator/Data/Config.xlsx
@@ -8,13 +8,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
     <sheet name="Evaluation Warning" sheetId="13" r:id="rId4"/>
+    <sheet name="Evaluation Warning (1)" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -205,12 +206,18 @@
   <si>
     <t>The login link for Acme website</t>
   </si>
+  <si>
+    <t>This document was generated using a trial version of DevExpress libraries and can only be used for evaluation purposes.</t>
+  </si>
+  <si>
+    <t>Please purchase a license to continue use of DevExpress product libraries (v25.1.3.0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -221,6 +228,11 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -243,13 +255,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +567,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578" defaultRowHeight="15" customHeight="1"/>
@@ -679,7 +692,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -3911,19 +3924,40 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="5" ht="18.75">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>This document was generated using a trial version of DevExpress libraries and can only be used for evaluation purposes.</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Please purchase a license to continue use of DevExpress product libraries (v25.1.3.0)</t>
         </is>

--- a/AnualReportGenerator/Data/Config.xlsx
+++ b/AnualReportGenerator/Data/Config.xlsx
@@ -8,7 +8,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
     <sheet name="Evaluation Warning" sheetId="13" r:id="rId4"/>
     <sheet name="Evaluation Warning (1)" sheetId="14" r:id="rId5"/>
+    <sheet name="Evaluation Warning (2)" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -567,7 +568,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578" defaultRowHeight="15" customHeight="1"/>
@@ -692,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -1698,7 +1699,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A10">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
@@ -3945,6 +3946,27 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
